--- a/data/Livres.xlsx
+++ b/data/Livres.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Historique de Lecture'!$A$1:$X$303</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prochaines Lectures'!$A$1:$F$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Prochaines Lectures'!$A$1:$F$74</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="1260">
   <si>
     <t>Titre</t>
   </si>
@@ -3763,7 +3763,43 @@
     <t>Murasaki Shibiku</t>
   </si>
   <si>
-    <t>Fiction</t>
+    <t>The Tattoo Writer</t>
+  </si>
+  <si>
+    <t>Takagi Akimitsu</t>
+  </si>
+  <si>
+    <t>American Gods</t>
+  </si>
+  <si>
+    <t>Hugo, Nebula, Locus</t>
+  </si>
+  <si>
+    <t>Why Nations Fail</t>
+  </si>
+  <si>
+    <t>Acemoglu &amp; Robinsson</t>
+  </si>
+  <si>
+    <t>Economie</t>
+  </si>
+  <si>
+    <t>Psychology of Money</t>
+  </si>
+  <si>
+    <t>Morgan Housel</t>
+  </si>
+  <si>
+    <t>La Part d'Ange en Nous</t>
+  </si>
+  <si>
+    <t>Steven Pinker</t>
+  </si>
+  <si>
+    <t>Leurs Enfants Après Eux</t>
+  </si>
+  <si>
+    <t>Nicolas Mathieu</t>
   </si>
 </sst>
 </file>
@@ -3774,7 +3810,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3844,6 +3880,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Bahnschrift SemiBold Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Bahnschrift SemiBold Condensed"/>
       <family val="2"/>
     </font>
@@ -3995,7 +4037,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4246,6 +4288,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -4551,11 +4596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OC305"/>
+  <dimension ref="A1:OC309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K301" sqref="K301"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H313" sqref="H313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4611,8 +4656,8 @@
       <c r="I1" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>363</v>
+      <c r="J1" s="92" t="s">
+        <v>2</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>66</v>
@@ -21408,7 +21453,7 @@
         <v>1010</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>1247</v>
+        <v>313</v>
       </c>
       <c r="J305" s="4" t="s">
         <v>38</v>
@@ -21431,6 +21476,196 @@
       <c r="U305" s="5"/>
       <c r="V305" s="40"/>
       <c r="W305" s="65"/>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A306" s="89">
+        <v>248</v>
+      </c>
+      <c r="B306" s="3">
+        <v>45627</v>
+      </c>
+      <c r="C306" s="62"/>
+      <c r="D306" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E306" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="F306" s="70" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H306" s="4">
+        <v>2021</v>
+      </c>
+      <c r="I306" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="J306" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="K306" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="L306" s="5">
+        <v>200</v>
+      </c>
+      <c r="M306" s="78"/>
+      <c r="O306" s="54"/>
+      <c r="Q306" s="54"/>
+      <c r="R306" s="54"/>
+      <c r="U306" s="5"/>
+      <c r="V306" s="40"/>
+      <c r="W306" s="65"/>
+    </row>
+    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A307" s="89">
+        <v>249</v>
+      </c>
+      <c r="B307" s="3">
+        <v>45627</v>
+      </c>
+      <c r="C307" s="62"/>
+      <c r="D307" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E307" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F307" s="70" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H307" s="4">
+        <v>2001</v>
+      </c>
+      <c r="I307" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="J307" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K307" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L307" s="5">
+        <v>590</v>
+      </c>
+      <c r="M307" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="O307" s="54"/>
+      <c r="Q307" s="54"/>
+      <c r="R307" s="54"/>
+      <c r="U307" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="V307" s="40"/>
+      <c r="W307" s="65"/>
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A308" s="89">
+        <v>250</v>
+      </c>
+      <c r="B308" s="3">
+        <v>45658</v>
+      </c>
+      <c r="C308" s="62"/>
+      <c r="D308" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E308" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F308" s="70" t="s">
+        <v>514</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H308" s="4">
+        <v>1936</v>
+      </c>
+      <c r="I308" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="J308" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K308" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L308" s="5">
+        <v>1010</v>
+      </c>
+      <c r="M308" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="O308" s="54"/>
+      <c r="P308" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q308" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="R308" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="U308" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V308" s="40"/>
+      <c r="W308" s="65"/>
+    </row>
+    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A309" s="89">
+        <v>251</v>
+      </c>
+      <c r="B309" s="3">
+        <v>45689</v>
+      </c>
+      <c r="C309" s="62"/>
+      <c r="D309" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E309" s="27" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F309" s="70" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H309" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I309" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="J309" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K309" s="4"/>
+      <c r="L309" s="5">
+        <v>540</v>
+      </c>
+      <c r="M309" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="O309" s="54"/>
+      <c r="P309" s="54"/>
+      <c r="Q309" s="54"/>
+      <c r="R309" s="54"/>
+      <c r="U309" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="V309" s="40"/>
+      <c r="W309" s="65"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X303"/>
@@ -21444,10 +21679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JF160"/>
+  <dimension ref="A1:JF162"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22655,14 +22890,14 @@
       <c r="A55" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="76" t="s">
-        <v>514</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>515</v>
+      <c r="C55" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>313</v>
@@ -22678,11 +22913,11 @@
       <c r="B56" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="73" t="s">
-        <v>99</v>
+      <c r="C56" s="21" t="s">
+        <v>424</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>313</v>
@@ -22698,18 +22933,16 @@
       <c r="B57" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>157</v>
+      <c r="C57" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="F57" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
@@ -22719,10 +22952,10 @@
         <v>129</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>313</v>
@@ -22736,11 +22969,9 @@
       <c r="B59" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>435</v>
-      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>436</v>
+        <v>251</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>313</v>
@@ -22748,20 +22979,20 @@
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="F60" s="4"/>
+      <c r="A60" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
@@ -22769,7 +23000,7 @@
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="15" t="s">
@@ -22785,14 +23016,16 @@
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>275</v>
+        <v>700</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -22801,15 +23034,15 @@
       </c>
       <c r="B63" s="27"/>
       <c r="C63" s="1" t="s">
-        <v>700</v>
+        <v>1040</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="E63" s="24" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -22819,7 +23052,7 @@
       </c>
       <c r="B64" s="27"/>
       <c r="C64" s="1" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>1041</v>
@@ -22832,12 +23065,12 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="4" t="s">
         <v>459</v>
       </c>
       <c r="B65" s="27"/>
       <c r="C65" s="1" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>1041</v>
@@ -22850,12 +23083,12 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B66" s="27"/>
       <c r="C66" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1041</v>
@@ -22872,17 +23105,17 @@
         <v>459</v>
       </c>
       <c r="B67" s="27"/>
-      <c r="C67" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>1041</v>
+      <c r="C67" s="22" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>1039</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>368</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>192</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -22891,10 +23124,10 @@
       </c>
       <c r="B68" s="27"/>
       <c r="C68" s="22" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>368</v>
@@ -22908,11 +23141,11 @@
         <v>459</v>
       </c>
       <c r="B69" s="27"/>
-      <c r="C69" s="22" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>1035</v>
+      <c r="C69" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1053</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>368</v>
@@ -22927,10 +23160,10 @@
       </c>
       <c r="B70" s="27"/>
       <c r="C70" s="1" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>368</v>
@@ -22945,10 +23178,10 @@
       </c>
       <c r="B71" s="27"/>
       <c r="C71" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>368</v>
@@ -22963,10 +23196,10 @@
       </c>
       <c r="B72" s="27"/>
       <c r="C72" s="1" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>368</v>
@@ -22976,15 +23209,15 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="4" t="s">
         <v>459</v>
       </c>
       <c r="B73" s="27"/>
       <c r="C73" s="1" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>368</v>
@@ -22994,21 +23227,19 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B74" s="27"/>
-      <c r="C74" s="1" t="s">
-        <v>1048</v>
-      </c>
+      <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E74" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="E74" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>1056</v>
+      <c r="F74" s="23" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -23016,9 +23247,11 @@
         <v>459</v>
       </c>
       <c r="B75" s="27"/>
-      <c r="C75" s="1"/>
+      <c r="C75" s="2" t="s">
+        <v>855</v>
+      </c>
       <c r="D75" s="1" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>368</v>
@@ -23028,15 +23261,15 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="4" t="s">
         <v>459</v>
       </c>
       <c r="B76" s="27"/>
       <c r="C76" s="2" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>856</v>
+        <v>879</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>368</v>
@@ -23046,15 +23279,13 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B77" s="27"/>
-      <c r="C77" s="2" t="s">
-        <v>878</v>
-      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>368</v>
@@ -23064,13 +23295,15 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="4" t="s">
         <v>459</v>
       </c>
       <c r="B78" s="27"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>884</v>
+      </c>
       <c r="D78" s="1" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="E78" s="24" t="s">
         <v>368</v>
@@ -23080,15 +23313,13 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B79" s="27"/>
-      <c r="C79" s="2" t="s">
-        <v>884</v>
-      </c>
+      <c r="C79" s="2"/>
       <c r="D79" s="1" t="s">
-        <v>880</v>
+        <v>448</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>368</v>
@@ -23097,14 +23328,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B80" s="27"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="1" t="s">
-        <v>448</v>
+      <c r="D80" s="29" t="s">
+        <v>1093</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>368</v>
@@ -23113,14 +23344,16 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A81" s="19" t="s">
+    <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>459</v>
       </c>
       <c r="B81" s="27"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="29" t="s">
-        <v>1093</v>
+      <c r="C81" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>886</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>368</v>
@@ -23134,11 +23367,11 @@
         <v>459</v>
       </c>
       <c r="B82" s="27"/>
-      <c r="C82" s="1" t="s">
-        <v>883</v>
+      <c r="C82" s="2" t="s">
+        <v>889</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>368</v>
@@ -23147,16 +23380,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A83" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B83" s="27"/>
-      <c r="C83" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>888</v>
+      <c r="C83" s="2"/>
+      <c r="D83" s="29" t="s">
+        <v>868</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>368</v>
@@ -23165,14 +23396,16 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B84" s="27"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="29" t="s">
-        <v>868</v>
+      <c r="C84" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>368</v>
@@ -23186,17 +23419,17 @@
         <v>459</v>
       </c>
       <c r="B85" s="27"/>
-      <c r="C85" s="1" t="s">
-        <v>572</v>
+      <c r="C85" s="2" t="s">
+        <v>1088</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E85" s="24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E85" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="F85" s="23" t="s">
-        <v>206</v>
+      <c r="F85" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -23204,16 +23437,16 @@
         <v>459</v>
       </c>
       <c r="B86" s="27"/>
-      <c r="C86" s="2" t="s">
-        <v>1088</v>
+      <c r="C86" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E86" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="E86" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="23" t="s">
         <v>274</v>
       </c>
     </row>
@@ -23222,16 +23455,16 @@
         <v>459</v>
       </c>
       <c r="B87" s="27"/>
-      <c r="C87" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="E87" s="24" t="s">
+      <c r="C87" s="22" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E87" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="F87" s="23" t="s">
+      <c r="F87" s="4" t="s">
         <v>274</v>
       </c>
     </row>
@@ -23241,7 +23474,7 @@
       </c>
       <c r="B88" s="27"/>
       <c r="C88" s="22" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>1037</v>
@@ -23258,27 +23491,25 @@
         <v>459</v>
       </c>
       <c r="B89" s="27"/>
-      <c r="C89" s="22" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>1037</v>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>1122</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>368</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="4" t="s">
         <v>459</v>
       </c>
       <c r="B90" s="27"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>1122</v>
+        <v>1015</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>368</v>
@@ -23287,20 +23518,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A91" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B91" s="27"/>
-      <c r="C91" s="1"/>
+      <c r="C91" s="81" t="s">
+        <v>956</v>
+      </c>
       <c r="D91" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E91" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="E91" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>203</v>
+      <c r="F91" s="23" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -23309,16 +23542,16 @@
       </c>
       <c r="B92" s="27"/>
       <c r="C92" s="81" t="s">
-        <v>956</v>
+        <v>729</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>957</v>
+        <v>730</v>
       </c>
       <c r="E92" s="24" t="s">
         <v>368</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>258</v>
+        <v>958</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -23327,10 +23560,10 @@
       </c>
       <c r="B93" s="27"/>
       <c r="C93" s="81" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>368</v>
@@ -23345,10 +23578,10 @@
       </c>
       <c r="B94" s="27"/>
       <c r="C94" s="81" t="s">
-        <v>734</v>
+        <v>645</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>735</v>
+        <v>646</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>368</v>
@@ -23357,22 +23590,22 @@
         <v>958</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B95" s="27"/>
-      <c r="C95" s="81" t="s">
-        <v>645</v>
+      <c r="C95" s="1" t="s">
+        <v>1119</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="E95" s="24" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E95" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="F95" s="23" t="s">
-        <v>958</v>
+      <c r="F95" s="4" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -23380,43 +23613,39 @@
         <v>459</v>
       </c>
       <c r="B96" s="27"/>
-      <c r="C96" s="1" t="s">
-        <v>1119</v>
-      </c>
+      <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E96" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="E96" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F96" s="23"/>
+    </row>
+    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B97" s="27"/>
-      <c r="C97" s="1"/>
+      <c r="C97" s="81" t="s">
+        <v>705</v>
+      </c>
       <c r="D97" s="1" t="s">
-        <v>449</v>
+        <v>706</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>368</v>
       </c>
       <c r="F97" s="23"/>
     </row>
-    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B98" s="27"/>
-      <c r="C98" s="81" t="s">
-        <v>705</v>
-      </c>
+      <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>706</v>
+        <v>484</v>
       </c>
       <c r="E98" s="24" t="s">
         <v>368</v>
@@ -23424,18 +23653,20 @@
       <c r="F98" s="23"/>
     </row>
     <row r="99" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="4" t="s">
         <v>459</v>
       </c>
       <c r="B99" s="27"/>
-      <c r="C99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>924</v>
+      </c>
       <c r="D99" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E99" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="E99" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="F99" s="23"/>
+      <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
@@ -23443,10 +23674,10 @@
       </c>
       <c r="B100" s="27"/>
       <c r="C100" s="1" t="s">
-        <v>924</v>
+        <v>777</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>925</v>
+        <v>778</v>
       </c>
       <c r="E100" s="15" t="s">
         <v>368</v>
@@ -23459,10 +23690,10 @@
       </c>
       <c r="B101" s="27"/>
       <c r="C101" s="1" t="s">
-        <v>777</v>
+        <v>1013</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>778</v>
+        <v>1014</v>
       </c>
       <c r="E101" s="15" t="s">
         <v>368</v>
@@ -23475,10 +23706,10 @@
       </c>
       <c r="B102" s="27"/>
       <c r="C102" s="1" t="s">
-        <v>1013</v>
+        <v>835</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1014</v>
+        <v>836</v>
       </c>
       <c r="E102" s="15" t="s">
         <v>368</v>
@@ -23486,20 +23717,20 @@
       <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B103" s="27"/>
       <c r="C103" s="1" t="s">
-        <v>835</v>
+        <v>615</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="E103" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="E103" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="F103" s="4"/>
+      <c r="F103" s="23"/>
     </row>
     <row r="104" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
@@ -23507,26 +23738,24 @@
       </c>
       <c r="B104" s="27"/>
       <c r="C104" s="1" t="s">
-        <v>615</v>
+        <v>1108</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="F104" s="23"/>
+        <v>1107</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B105" s="27"/>
-      <c r="C105" s="1" t="s">
-        <v>1108</v>
-      </c>
+      <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>1107</v>
+        <v>431</v>
       </c>
       <c r="E105" s="15" t="s">
         <v>625</v>
@@ -23538,9 +23767,9 @@
         <v>459</v>
       </c>
       <c r="B106" s="27"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1" t="s">
-        <v>431</v>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22" t="s">
+        <v>1113</v>
       </c>
       <c r="E106" s="15" t="s">
         <v>625</v>
@@ -23552,9 +23781,9 @@
         <v>459</v>
       </c>
       <c r="B107" s="27"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22" t="s">
-        <v>1113</v>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>1114</v>
       </c>
       <c r="E107" s="15" t="s">
         <v>625</v>
@@ -23566,25 +23795,27 @@
         <v>459</v>
       </c>
       <c r="B108" s="27"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1" t="s">
-        <v>1114</v>
+      <c r="C108" s="22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>1091</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="F108" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B109" s="27"/>
-      <c r="C109" s="22" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>1091</v>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="E109" s="15" t="s">
         <v>313</v>
@@ -23593,14 +23824,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B110" s="27"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1" t="s">
-        <v>559</v>
+      <c r="C110" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="E110" s="15" t="s">
         <v>313</v>
@@ -23609,16 +23842,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B111" s="27"/>
-      <c r="C111" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>30</v>
+      <c r="C111" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="E111" s="15" t="s">
         <v>313</v>
@@ -23632,11 +23865,9 @@
         <v>459</v>
       </c>
       <c r="B112" s="27"/>
-      <c r="C112" s="1" t="s">
-        <v>643</v>
-      </c>
+      <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>644</v>
+        <v>1117</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>313</v>
@@ -23650,9 +23881,11 @@
         <v>459</v>
       </c>
       <c r="B113" s="27"/>
-      <c r="C113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>1086</v>
+      </c>
       <c r="D113" s="1" t="s">
-        <v>1117</v>
+        <v>1087</v>
       </c>
       <c r="E113" s="15" t="s">
         <v>313</v>
@@ -23667,10 +23900,10 @@
       </c>
       <c r="B114" s="27"/>
       <c r="C114" s="1" t="s">
-        <v>1086</v>
+        <v>641</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1087</v>
+        <v>642</v>
       </c>
       <c r="E114" s="15" t="s">
         <v>313</v>
@@ -23685,10 +23918,10 @@
       </c>
       <c r="B115" s="27"/>
       <c r="C115" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>313</v>
@@ -23703,10 +23936,10 @@
       </c>
       <c r="B116" s="27"/>
       <c r="C116" s="1" t="s">
-        <v>639</v>
+        <v>1090</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>640</v>
+        <v>20</v>
       </c>
       <c r="E116" s="15" t="s">
         <v>313</v>
@@ -23721,10 +23954,10 @@
       </c>
       <c r="B117" s="27"/>
       <c r="C117" s="1" t="s">
-        <v>1090</v>
+        <v>1109</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>20</v>
+        <v>1110</v>
       </c>
       <c r="E117" s="15" t="s">
         <v>313</v>
@@ -23739,10 +23972,10 @@
       </c>
       <c r="B118" s="27"/>
       <c r="C118" s="1" t="s">
-        <v>1109</v>
+        <v>764</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1110</v>
+        <v>763</v>
       </c>
       <c r="E118" s="15" t="s">
         <v>313</v>
@@ -23757,10 +23990,10 @@
       </c>
       <c r="B119" s="27"/>
       <c r="C119" s="1" t="s">
-        <v>764</v>
+        <v>647</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>763</v>
+        <v>34</v>
       </c>
       <c r="E119" s="15" t="s">
         <v>313</v>
@@ -23775,10 +24008,10 @@
       </c>
       <c r="B120" s="27"/>
       <c r="C120" s="1" t="s">
-        <v>647</v>
+        <v>1105</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>34</v>
+        <v>1106</v>
       </c>
       <c r="E120" s="15" t="s">
         <v>313</v>
@@ -23793,10 +24026,10 @@
       </c>
       <c r="B121" s="27"/>
       <c r="C121" s="1" t="s">
-        <v>1105</v>
+        <v>670</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1106</v>
+        <v>671</v>
       </c>
       <c r="E121" s="15" t="s">
         <v>313</v>
@@ -23811,10 +24044,10 @@
       </c>
       <c r="B122" s="27"/>
       <c r="C122" s="1" t="s">
-        <v>670</v>
+        <v>472</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>671</v>
+        <v>438</v>
       </c>
       <c r="E122" s="15" t="s">
         <v>313</v>
@@ -23823,16 +24056,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A123" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B123" s="27"/>
-      <c r="C123" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>438</v>
+      <c r="C123" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="E123" s="15" t="s">
         <v>313</v>
@@ -23841,16 +24074,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B124" s="27"/>
-      <c r="C124" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="D124" s="22" t="s">
-        <v>92</v>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="E124" s="15" t="s">
         <v>313</v>
@@ -23864,9 +24095,11 @@
         <v>459</v>
       </c>
       <c r="B125" s="27"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1" t="s">
-        <v>761</v>
+      <c r="C125" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>574</v>
       </c>
       <c r="E125" s="15" t="s">
         <v>313</v>
@@ -23880,11 +24113,11 @@
         <v>459</v>
       </c>
       <c r="B126" s="27"/>
-      <c r="C126" s="22" t="s">
-        <v>573</v>
-      </c>
-      <c r="D126" s="22" t="s">
-        <v>574</v>
+      <c r="C126" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="E126" s="15" t="s">
         <v>313</v>
@@ -23898,11 +24131,9 @@
         <v>459</v>
       </c>
       <c r="B127" s="27"/>
-      <c r="C127" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>629</v>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22" t="s">
+        <v>248</v>
       </c>
       <c r="E127" s="15" t="s">
         <v>313</v>
@@ -23916,9 +24147,11 @@
         <v>459</v>
       </c>
       <c r="B128" s="27"/>
-      <c r="C128" s="22"/>
+      <c r="C128" s="22" t="s">
+        <v>1103</v>
+      </c>
       <c r="D128" s="22" t="s">
-        <v>248</v>
+        <v>1104</v>
       </c>
       <c r="E128" s="15" t="s">
         <v>313</v>
@@ -23932,11 +24165,11 @@
         <v>459</v>
       </c>
       <c r="B129" s="27"/>
-      <c r="C129" s="22" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D129" s="22" t="s">
-        <v>1104</v>
+      <c r="C129" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>1116</v>
       </c>
       <c r="E129" s="15" t="s">
         <v>313</v>
@@ -23951,10 +24184,10 @@
       </c>
       <c r="B130" s="27"/>
       <c r="C130" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E130" s="15" t="s">
         <v>313</v>
@@ -23969,10 +24202,10 @@
       </c>
       <c r="B131" s="27"/>
       <c r="C131" s="1" t="s">
-        <v>1121</v>
+        <v>635</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1115</v>
+        <v>636</v>
       </c>
       <c r="E131" s="15" t="s">
         <v>313</v>
@@ -23987,10 +24220,10 @@
       </c>
       <c r="B132" s="27"/>
       <c r="C132" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E132" s="15" t="s">
         <v>313</v>
@@ -24005,11 +24238,9 @@
       </c>
       <c r="B133" s="27"/>
       <c r="C133" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>638</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="D133" s="1"/>
       <c r="E133" s="15" t="s">
         <v>313</v>
       </c>
@@ -24022,10 +24253,10 @@
         <v>459</v>
       </c>
       <c r="B134" s="27"/>
-      <c r="C134" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>1142</v>
+      </c>
       <c r="E134" s="15" t="s">
         <v>313</v>
       </c>
@@ -24038,9 +24269,11 @@
         <v>459</v>
       </c>
       <c r="B135" s="27"/>
-      <c r="C135" s="1"/>
+      <c r="C135" s="1" t="s">
+        <v>1144</v>
+      </c>
       <c r="D135" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="E135" s="15" t="s">
         <v>313</v>
@@ -24054,11 +24287,11 @@
         <v>459</v>
       </c>
       <c r="B136" s="27"/>
-      <c r="C136" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>1143</v>
+      <c r="C136" s="22" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>1146</v>
       </c>
       <c r="E136" s="15" t="s">
         <v>313</v>
@@ -24072,11 +24305,11 @@
         <v>459</v>
       </c>
       <c r="B137" s="27"/>
-      <c r="C137" s="22" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>1146</v>
+      <c r="C137" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>1147</v>
       </c>
       <c r="E137" s="15" t="s">
         <v>313</v>
@@ -24091,7 +24324,7 @@
       </c>
       <c r="B138" s="27"/>
       <c r="C138" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>1147</v>
@@ -24109,10 +24342,10 @@
       </c>
       <c r="B139" s="27"/>
       <c r="C139" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="E139" s="15" t="s">
         <v>313</v>
@@ -24127,10 +24360,10 @@
       </c>
       <c r="B140" s="27"/>
       <c r="C140" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1151</v>
+        <v>1106</v>
       </c>
       <c r="E140" s="15" t="s">
         <v>313</v>
@@ -24145,10 +24378,10 @@
       </c>
       <c r="B141" s="27"/>
       <c r="C141" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1106</v>
+        <v>1154</v>
       </c>
       <c r="E141" s="15" t="s">
         <v>313</v>
@@ -24163,10 +24396,10 @@
       </c>
       <c r="B142" s="27"/>
       <c r="C142" s="1" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="E142" s="15" t="s">
         <v>313</v>
@@ -24181,17 +24414,15 @@
       </c>
       <c r="B143" s="27"/>
       <c r="C143" s="1" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F143" s="4"/>
     </row>
     <row r="144" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="19" t="s">
@@ -24199,10 +24430,10 @@
       </c>
       <c r="B144" s="27"/>
       <c r="C144" s="1" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E144" s="15" t="s">
         <v>368</v>
@@ -24215,26 +24446,26 @@
       </c>
       <c r="B145" s="27"/>
       <c r="C145" s="1" t="s">
-        <v>1159</v>
+        <v>1183</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1160</v>
+        <v>1184</v>
       </c>
       <c r="E145" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="F145" s="4"/>
+      <c r="F145" s="4" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="146" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B146" s="27"/>
-      <c r="C146" s="1" t="s">
-        <v>1183</v>
-      </c>
+      <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>1184</v>
+        <v>1209</v>
       </c>
       <c r="E146" s="15" t="s">
         <v>368</v>
@@ -24248,15 +24479,17 @@
         <v>459</v>
       </c>
       <c r="B147" s="27"/>
-      <c r="C147" s="1"/>
+      <c r="C147" s="1" t="s">
+        <v>1219</v>
+      </c>
       <c r="D147" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>1018</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -24264,41 +24497,39 @@
         <v>459</v>
       </c>
       <c r="B148" s="27"/>
-      <c r="C148" s="1" t="s">
-        <v>1219</v>
-      </c>
+      <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B149" s="27"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1" t="s">
-        <v>1211</v>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22" t="s">
+        <v>1212</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="F149" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="150" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A150" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B150" s="27"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22" t="s">
-        <v>1212</v>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>1213</v>
       </c>
       <c r="E150" s="15" t="s">
         <v>313</v>
@@ -24314,14 +24545,12 @@
       <c r="B151" s="27"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="F151" s="4"/>
     </row>
     <row r="152" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A152" s="19" t="s">
@@ -24330,7 +24559,7 @@
       <c r="B152" s="27"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E152" s="15" t="s">
         <v>625</v>
@@ -24344,7 +24573,7 @@
       <c r="B153" s="27"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E153" s="15" t="s">
         <v>625</v>
@@ -24358,21 +24587,25 @@
       <c r="B154" s="27"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="F154" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="155" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="19" t="s">
         <v>459</v>
       </c>
       <c r="B155" s="27"/>
-      <c r="C155" s="1"/>
+      <c r="C155" s="1" t="s">
+        <v>1222</v>
+      </c>
       <c r="D155" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E155" s="15" t="s">
         <v>313</v>
@@ -24387,10 +24620,10 @@
       </c>
       <c r="B156" s="27"/>
       <c r="C156" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="E156" s="15" t="s">
         <v>313</v>
@@ -24405,7 +24638,7 @@
       </c>
       <c r="B157" s="27"/>
       <c r="C157" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>1210</v>
@@ -24423,10 +24656,10 @@
       </c>
       <c r="B158" s="27"/>
       <c r="C158" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
       <c r="E158" s="15" t="s">
         <v>313</v>
@@ -24441,36 +24674,69 @@
       </c>
       <c r="B159" s="27"/>
       <c r="C159" s="1" t="s">
-        <v>1223</v>
+        <v>1231</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A160" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B160" s="27"/>
-      <c r="C160" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E160" s="15" t="s">
+      <c r="C160" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E160" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="F160" s="4"/>
+      <c r="F160" s="10" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F75">
+  <autoFilter ref="A1:F74">
     <sortState ref="A2:F137">
       <sortCondition ref="A1:A77"/>
     </sortState>
